--- a/智能分析社团学习安排.xlsx
+++ b/智能分析社团学习安排.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\智能分析社团\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\智能分析社团\AboutUs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D52845E-B3BD-4DCA-8EC3-A2BD343D8C6F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044A0BFD-F204-44A5-9370-B1C9ED87E1AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="9015" xr2:uid="{9F466641-1129-40A6-BEB5-16E865456418}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="9015" xr2:uid="{9F466641-1129-40A6-BEB5-16E865456418}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
